--- a/Personal/xiemin/周计划.xlsx
+++ b/Personal/xiemin/周计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="星期一" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+  <si>
+    <t>8.10-9.00</t>
+  </si>
+  <si>
+    <t>9.30-11.00</t>
+  </si>
+  <si>
+    <t>9.00-5.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有个项目要实现跨网段的功能，熟悉了大半天，最后也没有找到一个清晰的方案，真蛋疼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.30-6.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD设备驱动：硬件原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>时间段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,95 +69,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.10-9.00</t>
+    <t>高等数学：无穷大和无穷小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共120，完成47，剩余53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9.00-5.30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5.30-6.20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单词目标是完成扇贝打卡（50-80）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、C++ 第二天视频1+2；
-2、工作上的杂事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.30-11.00</t>
-  </si>
-  <si>
-    <t>Linux设备驱动：LCD设备驱动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成一半，极限的性质未看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>理解程度只有10%，具体问题在《高等
-数学学习笔记》中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成（80+20）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成不足30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要调整Linux设备驱动学习计划，2天时间不够搞定一种类型的设备驱动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、因为视频1之前看了50%,后面的内容
-都相对简单，暂时不需要深入理解。
-PS：C++视频学习时间需要调整，较难的部分要预留更多时间学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高等数学：函数的极限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共120，完成47，剩余73</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高等数学：无穷大和无穷小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linux设备驱动：LCD设备驱动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C++</t>
+      <t>1、C++</t>
     </r>
     <r>
       <rPr>
@@ -141,13 +96,134 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">第二天视频3
+      <t>第二天视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4;
+2、LCD设备驱动：硬件原理
+3、工作：GR6D00跨网段功能实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>闲散时间背单词</t>
+    <t>完成C++第二天视频4，LCD设备驱动
+未进行（预计晚上执行）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有个项目要实现跨网段的功能，熟悉了大半天，最后也没有找到一个清晰的方案，真蛋疼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.30-6.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD设备驱动：硬件原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.30-7.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高等数学：无穷大和无穷小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成C++第二天视频4，LCD设备驱动
+未进行（预计晚上执行）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共100，完成47，剩余53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解10%，痛苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成（剩余53个单词）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1、C++</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第二天视频</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4;
+2、LCD设备驱动：硬件原理
+3、工作：GR6D00跨网段功能实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +231,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,15 +247,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -188,7 +255,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +265,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,15 +287,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -527,7 +605,7 @@
   <dimension ref="B1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -563,12 +641,97 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="55.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -576,7 +739,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="B1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -592,88 +755,22 @@
     <col min="6" max="6" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="2:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="2:4" ht="54" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="2"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="8" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -682,10 +779,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="B1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -696,66 +793,17 @@
     <col min="4" max="4" width="55.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
+    <row r="1" spans="2:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
+    <row r="3" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="3"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D6" s="1"/>
     </row>
   </sheetData>
@@ -808,14 +856,87 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="55.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Personal/xiemin/周计划.xlsx
+++ b/Personal/xiemin/周计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="星期一" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>8.10-9.00</t>
   </si>
@@ -162,19 +162,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高等数学：无穷大和无穷小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成C++第二天视频4，LCD设备驱动
-未进行（预计晚上执行）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>共100，完成47，剩余53</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,6 +175,34 @@
   </si>
   <si>
     <t>完成（剩余53个单词）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高等数学：极限的运算法则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共100，剩余71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCD设备驱动：lcd驱动软件框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.30-11.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.30-9.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《谢孟媛英语音标发音全集》第2集</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -209,9 +228,9 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>4;
-2、LCD设备驱动：硬件原理
-3、工作：GR6D00跨网段功能实现</t>
+      <t>5：友元，C++第三天视频1：继承和派生1;
+2、LCD设备驱动：灰度等级，lcd驱动软件框架
+3、工作：GR6D00跨网段功能：了解网关，子网掩码，IP地址；搭建VxWorks开发环境</t>
     </r>
     <r>
       <rPr>
@@ -224,6 +243,76 @@
       <t xml:space="preserve">
 </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、起床失败
+2、晚上重新理解函数和极限，基本找到感觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看数学high了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、跨网段功能找到思路：上午了解到网关概念（未掌握），但是透过关于网关的文章，找到了解决跨网段功能的办法。vxWorks自带有路由功能，手动添加即可，其余主机只需要添加对应的网关就可以实现跨网段访问。
+2、C++视频学习完成
+3、完成vxWorks开发环境搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.10-9.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成24个单词，还剩79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.30-11.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《谢孟媛英语音标发音全集》第2集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、LCD设备驱动：灰度等级，lcd驱动软件框架
+2、高等数学：无穷小和无穷小（重新理解）；极限的
+运算法则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、C++第三天视频2：继承和派生2;
+2、LCD设备驱动：灰度等级，lcd驱动软件框架
+3、【工作】GR6D00跨网段功能：了解网关，子网掩码，IP地址；实现跨网段功能
+4、高等数学：无穷小和无穷小（重新理解）；极限的
+运算法则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成剩余79个单词背诵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、LCD驱动软件框架：初步了解到framebuffer的结构，对字符设备的注册存在疑惑；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、复习第1集元音发音，第二集的辅音发音学了60%，明天继续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成GR6D00跨网段功能（但是对IP，路由知识没有掌握）;
+2、C++第三天视频2完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -287,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -301,6 +390,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -602,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -618,20 +710,83 @@
     <col min="6" max="6" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="2:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="2:4" ht="54" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="8" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -641,17 +796,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="32.375" customWidth="1"/>
-    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="2" max="2" width="38.25" customWidth="1"/>
+    <col min="3" max="3" width="51.375" customWidth="1"/>
     <col min="4" max="4" width="55.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -674,13 +829,13 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -690,23 +845,21 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="114.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -715,21 +868,35 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -739,38 +906,94 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="28.25" customWidth="1"/>
-    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="3" max="3" width="64.5" customWidth="1"/>
     <col min="4" max="4" width="55.875" customWidth="1"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
     <col min="6" max="6" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="2:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="2:4" ht="54" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="2:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="2"/>
+    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="8" spans="2:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Personal/xiemin/周计划.xlsx
+++ b/Personal/xiemin/周计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="星期一" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
   <si>
     <t>8.10-9.00</t>
   </si>
@@ -303,16 +303,109 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、LCD驱动软件框架：初步了解到framebuffer的结构，对字符设备的注册存在疑惑；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1、复习第1集元音发音，第二集的辅音发音学了60%，明天继续</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、完成GR6D00跨网段功能（但是对IP，路由知识没有掌握）;
 2、C++第三天视频2完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、应用层，fbmem(framebuffer核心层)，底层fbxx设备驱动关系：每个物理显示设备都用一个fb_info表示，完成注册后这个fb_info将会保存在全局数组fb中。而应用层访问具体的fb设备驱动流程（以open为例)：open-&gt;fb_open-&gt;根据次设备号，从全局数组中获取设备的fb_info-&gt;调用设备驱动的open，即fb_xxxx_open函数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《谢孟媛英语音标发音全集》第2集剩余40%
+《谢孟媛英语音标发音全集》第3集剩余50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想事情，未背</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日小结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、LCD驱动软件框架：完成30%，初步了解到framebuffer的结构，对字符设备的注册存在疑惑；
+2、未完成，只是重新理解了自变量趋于定点的极限。自变量趋于无穷的极限未理解清楚，主要是没理解自变量趋于无穷大的表示方式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、网关，IP地址，子网掩码，路由知识的学习；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背100个单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背100个单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、C++第三天视频3：派生类的构造函数和析构函数，多基继承技术深入学习;
+2、LCD设备驱动框架：字符设备的理解；写出framebuffer和fb_info的注册流程；结合LCD硬件原理熟悉fb_info结构体参数
+3、【工作】高度表AD性能指标测试（上午）；
+4、【工作】GR6040增益控制到天奥联调（下午）；
+4、高等数学：无穷小和无穷小（重新理解）；极限的
+运算法则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成34，剩余68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1、【工作】AD性能指标测试完成（后续还会调试）；
+2、【工作】GR6040增益按照客户要求调试完成（后面存在出差的风险）；
+3、 背了一些单词；
+4、 看了一下放大器，增益等概念（为调试做准备）；
+5、 学习高等数学：无穷小，无穷大，极限的运算法则
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6、 C++和LCD设备驱动未完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成C++第三天视频3（7:00-9：00，中间和娃儿视频）
+2、单词背诵（9:20-10:00）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、LCD设备驱动：字符设备的理解；写出framebuffer和fb_info的注册流程
+2、高等数学：无穷小和无穷小（重新理解）；极限的
+运算法则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、第2集40%，50%未开始；
+2、字符设备基本理解，framebuffer和fb_info注册流程基本熟悉，未写出。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -320,7 +413,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +431,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -376,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -391,6 +493,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -906,23 +1011,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="45.5" customWidth="1"/>
     <col min="3" max="3" width="64.5" customWidth="1"/>
-    <col min="4" max="4" width="55.875" customWidth="1"/>
-    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="64.25" customWidth="1"/>
+    <col min="5" max="5" width="45.75" customWidth="1"/>
     <col min="6" max="6" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -935,19 +1040,22 @@
       <c r="D1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -955,11 +1063,11 @@
         <v>48</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -970,30 +1078,35 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="C6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1002,31 +1115,89 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="28.25" customWidth="1"/>
-    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="2" max="2" width="52.375" customWidth="1"/>
+    <col min="3" max="3" width="74.625" customWidth="1"/>
     <col min="4" max="4" width="55.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="3"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="2:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="D6" s="1"/>
     </row>
   </sheetData>

--- a/Personal/xiemin/周计划.xlsx
+++ b/Personal/xiemin/周计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="星期一" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="93">
   <si>
     <t>8.10-9.00</t>
   </si>
@@ -406,6 +406,134 @@
   <si>
     <t>1、第2集40%，50%未开始；
 2、字符设备基本理解，framebuffer和fb_info注册流程基本熟悉，未写出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未背，看英文小说《绿野仙踪》第一章龙卷风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.00-12.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.00-5.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1、【工作】高度表AD性能指标测试（全天）；
+2、高等数学：极限的存在准则，无穷小的比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《谢孟媛英语音标发音全集》第3集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、C++第三天视频4和5：多基（共基）继承的二义性内存图观察，基类对象和派生类对象的转换和组合，继承的综合示例，;
+2、LCD设备驱动框架：写出framebuffer和fb_info的注册流程；结合LCD硬件原理熟悉fb_info结构体参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背175个单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、完成C++第三天视频4和5（关于继承和组合的思想未掌握）
+2、看了不到40分钟的fb驱动，没有理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、配置修改高度表时钟，测试AD性能指标（引入的5db）;
+2、继续研究fb驱动，搞清楚了fb注册为字符设备，但未搞清楚各个fb设备如何和最初的fb设备统一关联
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整计划，暂时放下音标学习，转为PPC/ARM相关驱动调试学习，
+为跳槽做准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成（实际实际是23:00-23:30）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上大部分时间在写新的简历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、LCD设备驱动：字符设备的理解；写出framebuffer和fb_info的注册流程
+2、高等数学：极限的存在准则，无穷小的比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>framebuffer明天看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、高等数学完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.00-5.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背100个单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.30-12.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、C++第四天视频1：多态（重要）；
+2、LCD设备驱动框架：同一主设备号驱动的关系，结合LCD硬件原理，理解fb_info结构体成员含义；
+3、【工作】高度表时钟小板（HMC1035）时钟不干净导致AD性能指标问题解决（全天）；
+4、高等数学：函数的连续性，连续函数的运算与初等函数的连续性；
+5、考虑I下PPC/ARM学习内容和计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背100个单词或者看两篇英文小说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词未背诵，完成了《绿野仙踪》第1章龙卷风剩余部分和第二章麦肯锡人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门聚会，未背诵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、Q1:鉴相频率对采样时钟的影响？
+2、今天主要是在调试时钟小板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、【工作：10：00-11:50】解决1个频点（120MHz）的AD性能指标（过采样/欠采样），解决办法是将原来5MHz的鉴相频率改为25MHz，调整对应的分频系数，以及VCO子频段范围，让时钟小板输出稳定且干净的120MHz时钟
+2、PPC/ARM学习内容和计划初步制定
+3、LCD驱动学习，CPP视频，高等数学学习未进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、考虑下PPC/ARM学习内容和计划；
+2、LCD设备驱动：同一主设备号驱动的关系，结合LCD硬件原理，理解fb_info结构体成员含义
+3、高等数学：函数的连续性，连续函数的运算与初等函数的连续性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、21:00-22:00 CPP学习完成
+2、22:00-23:00 完成单词背诵
+3、看了会数学，太累了，休息了，再看会《人间失格》
+4、LCD设备驱动未做</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -496,6 +624,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1117,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1209,25 +1340,198 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="52.375" customWidth="1"/>
+    <col min="3" max="3" width="74.625" customWidth="1"/>
+    <col min="4" max="4" width="48.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="59.625" customWidth="1"/>
+    <col min="3" max="3" width="54.125" customWidth="1"/>
+    <col min="4" max="4" width="48.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="115.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
